--- a/VersionRecords/Version 5.3.8 201704111/定时器/新增定时器 (PS组).xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/定时器/新增定时器 (PS组).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version DC\定时器\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14085"/>
+    <workbookView windowWidth="28455" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="job任务模板" sheetId="7" r:id="rId1"/>
@@ -18,19 +13,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>上线版本</t>
   </si>
@@ -83,64 +70,49 @@
     <t>备注</t>
   </si>
   <si>
+    <t>dc</t>
+  </si>
+  <si>
     <t>LTS</t>
   </si>
   <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>（数据中心_房东_统计_增量_天）数据维护</t>
+  </si>
+  <si>
+    <t>王岩</t>
+  </si>
+  <si>
+    <t>钱文博</t>
+  </si>
+  <si>
     <t>启用</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayTask</t>
+  </si>
+  <si>
     <t>不用填</t>
   </si>
   <si>
-    <t>王岩</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoda-tasktracker</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>（数据中心_房东_统计_增量_天）数据维护</t>
-    <rPh sb="17" eb="18">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei hu</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>DcLandStatIncDayTask</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncDayTask</t>
     </r>
     <r>
@@ -148,120 +120,135 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>"}</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨12点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每日凌晨1点</t>
+  </si>
+  <si>
+    <t>不可重复执行，如有错，需开发修复</t>
   </si>
   <si>
     <t>数据中心_房东_统计_增量_月
 该表数据当月每日都会重新计算截止当前的当月最新数据并覆盖原有每月最后一天数据为最终数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncMonthTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DcLandStatIncMonthTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncMonthTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>（数据中心_房东_统计_全量_天）数据维护</t>
-    <rPh sb="17" eb="18">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei hu</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.dc.DCLandStatTotalDayTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DCLandStatTotalDayTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DCLandStatTotalDayTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>（数据中心_签约单_明细_统计_天）数据维护</t>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.dc.DCOrderInfoTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DCOrderInfoTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DCOrderInfoTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>（数据中心_签约单_明细_统计_天）数据维护</t>
-    <rPh sb="18" eb="19">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei hu</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日凌晨12点</t>
   </si>
   <si>
     <t>数据中心数据初始化</t>
-    <rPh sb="0" eb="1">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hzong xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu shi hua</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.dc.DcInitTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DcInitTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcInitTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨1点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨1点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>单次执行，上线后由开发通知执行一次。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心运营报表每日增量财务字段更新</t>
+  </si>
+  <si>
+    <t>孙苏文</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask"}</t>
+  </si>
+  <si>
+    <t>每日凌晨3点</t>
+  </si>
+  <si>
+    <t>是，依赖DcLandStatIncDayTask</t>
+  </si>
+  <si>
+    <t>运营报表数据库数据初始化定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask"}</t>
+  </si>
+  <si>
+    <t>运营报表更新昨日Dc数据定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate"}</t>
+  </si>
+  <si>
+    <t>每日凌晨5点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +277,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -298,6 +296,153 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -308,82 +453,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,7 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,12 +485,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -438,123 +693,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="6"/>
-    <cellStyle name="常规 3" xfId="8"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="常规 3 3" xfId="4"/>
-    <cellStyle name="常规 4" xfId="9"/>
-    <cellStyle name="常规 4 2" xfId="10"/>
-    <cellStyle name="常规 5" xfId="11"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="常规 2 2 2" xfId="33"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="34" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="35" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="36" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="38" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="52"/>
+    <cellStyle name="常规 3" xfId="53"/>
+    <cellStyle name="常规 4" xfId="54"/>
+    <cellStyle name="常规 4 2" xfId="55"/>
+    <cellStyle name="常规 5" xfId="56"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -573,20 +1104,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -876,11 +1399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -904,7 +1428,7 @@
     <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,13 +1459,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -960,279 +1484,441 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="L2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="J3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="J4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="N6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" ht="66" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="19"/>
     </row>
-    <row r="5" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A5" s="15" t="s">
+    <row r="8" ht="33" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="L8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" ht="33" spans="1:18">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="G9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="11"/>
+      <c r="R9" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>